--- a/src/assets/documents/preguntaSubjetivas.xlsx
+++ b/src/assets/documents/preguntaSubjetivas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sullc\Documents\TPI\Workspace\TPIntegrador\Angular\TPI-Front\src\assets\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC0C324-71FD-47DF-AC8B-71F4708289FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87936D4E-B9C5-4540-BAA5-828E8FDC06BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" activeTab="1" xr2:uid="{EA040AEE-35B0-4F5B-AEF3-29BB44B005B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" activeTab="3" xr2:uid="{EA040AEE-35B0-4F5B-AEF3-29BB44B005B2}"/>
   </bookViews>
   <sheets>
     <sheet name="categoria" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="55">
   <si>
     <t>nombre</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>CHECKBOX</t>
-  </si>
-  <si>
-    <t>    ]</t>
   </si>
   <si>
     <t>¿En cuáles de éstos instrumentos has invertido alguna vez?</t>
@@ -614,7 +611,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A3" sqref="A3:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -664,10 +661,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B5289D-8738-4DA2-AC29-B8179EB99313}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,7 +672,7 @@
     <col min="2" max="2" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -686,27 +683,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E6" s="1"/>
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -719,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E557A189-07BD-4DD4-AE4E-E2A608F405F0}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -765,10 +756,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -776,19 +767,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="E3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -796,19 +787,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
       <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -816,19 +807,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -836,19 +827,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
         <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -856,19 +847,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
       <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -880,10 +871,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8759312-058C-4473-8FFB-A755D6FBD3C0}">
-  <dimension ref="A1:L244"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:H36"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,16 +908,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -935,16 +926,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" s="2"/>
     </row>
@@ -953,16 +944,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -971,16 +962,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" s="2"/>
     </row>
@@ -989,16 +980,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -1007,16 +998,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7" s="2"/>
     </row>
@@ -1025,10 +1016,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1037,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8" s="2"/>
       <c r="L8" s="5"/>
@@ -1047,10 +1038,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1059,7 +1050,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -1068,10 +1059,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1080,7 +1071,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -1089,10 +1080,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1101,7 +1092,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -1110,10 +1101,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1122,7 +1113,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -1131,10 +1122,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -1143,7 +1134,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I13" s="2"/>
     </row>
@@ -1152,10 +1143,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1164,7 +1155,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -1173,10 +1164,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1185,7 +1176,7 @@
         <v>2</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I15" s="3"/>
     </row>
@@ -1194,10 +1185,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1206,7 +1197,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I16" s="2"/>
     </row>
@@ -1215,10 +1206,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1227,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -1236,10 +1227,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1248,7 +1239,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -1257,10 +1248,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -1269,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I19" s="2"/>
     </row>
@@ -1278,10 +1269,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1290,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1298,10 +1289,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1310,7 +1301,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I21" s="2"/>
     </row>
@@ -1319,10 +1310,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -1331,7 +1322,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I22" s="2"/>
     </row>
@@ -1340,16 +1331,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -1358,16 +1349,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I24" s="2"/>
       <c r="L24" s="2"/>
@@ -1377,16 +1368,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25">
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I25" s="2"/>
       <c r="L25" s="2"/>
@@ -1396,16 +1387,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26">
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I26" s="2"/>
       <c r="L26" s="2"/>
@@ -1415,16 +1406,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I27" s="2"/>
       <c r="L27" s="2"/>
@@ -1434,16 +1425,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I28" s="2"/>
       <c r="L28" s="2"/>
@@ -1453,16 +1444,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29">
         <v>4</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L29" s="2"/>
     </row>
@@ -1471,16 +1462,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D30">
         <v>8</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L30" s="2"/>
     </row>
@@ -1489,16 +1480,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L31" s="2"/>
     </row>
@@ -1507,16 +1498,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D32">
         <v>6</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L32" s="2"/>
     </row>
@@ -1525,16 +1516,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33">
         <v>10</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L33" s="2"/>
     </row>
@@ -1543,16 +1534,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L34" s="2"/>
     </row>
@@ -1561,16 +1552,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D35">
         <v>6</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L35" s="2"/>
     </row>
@@ -1579,653 +1570,18 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D36">
         <v>10</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L36" s="2"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L37" s="2"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L39" s="2"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I40" s="2"/>
-      <c r="L40" s="2"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I41" s="2"/>
-      <c r="L41" s="2"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I42" s="2"/>
-      <c r="L42" s="2"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I43" s="2"/>
-      <c r="L43" s="2"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I44" s="2"/>
-      <c r="L44" s="2"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I45" s="2"/>
-      <c r="L45" s="2"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I46" s="2"/>
-      <c r="L46" s="2"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I47" s="2"/>
-      <c r="L47" s="2"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I48" s="2"/>
-      <c r="L48" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I61" s="2"/>
-    </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I62" s="2"/>
-    </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I63" s="2"/>
-    </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I64" s="2"/>
-    </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I65" s="2"/>
-    </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I66" s="2"/>
-    </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I68" s="2"/>
-    </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I69" s="2"/>
-    </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I70" s="2"/>
-    </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I71" s="2"/>
-    </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I72" s="2"/>
-    </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I73" s="2"/>
-    </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I74" s="2"/>
-    </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I75" s="2"/>
-    </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I76" s="2"/>
-    </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I77" s="2"/>
-    </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I78" s="2"/>
-    </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I79" s="2"/>
-    </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I80" s="2"/>
-    </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I81" s="2"/>
-    </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I82" s="2"/>
-    </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I83" s="2"/>
-    </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I84" s="2"/>
-    </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I85" s="2"/>
-    </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I86" s="2"/>
-    </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I87" s="2"/>
-    </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I88" s="2"/>
-    </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I89" s="2"/>
-    </row>
-    <row r="90" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I90" s="2"/>
-    </row>
-    <row r="91" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I91" s="2"/>
-    </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I92" s="2"/>
-    </row>
-    <row r="93" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I93" s="2"/>
-    </row>
-    <row r="94" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I94" s="2"/>
-    </row>
-    <row r="95" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I95" s="2"/>
-    </row>
-    <row r="96" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I96" s="2"/>
-    </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I97" s="2"/>
-    </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I98" s="2"/>
-    </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I99" s="2"/>
-    </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I100" s="2"/>
-    </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I101" s="2"/>
-    </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I102" s="2"/>
-    </row>
-    <row r="103" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I103" s="2"/>
-    </row>
-    <row r="104" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I104" s="2"/>
-    </row>
-    <row r="105" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I105" s="2"/>
-    </row>
-    <row r="106" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I106" s="2"/>
-    </row>
-    <row r="107" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I107" s="2"/>
-    </row>
-    <row r="108" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I108" s="2"/>
-    </row>
-    <row r="109" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I109" s="2"/>
-    </row>
-    <row r="110" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I110" s="2"/>
-    </row>
-    <row r="111" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I111" s="2"/>
-    </row>
-    <row r="112" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I112" s="2"/>
-    </row>
-    <row r="113" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I113" s="2"/>
-    </row>
-    <row r="114" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I114" s="2"/>
-    </row>
-    <row r="115" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I115" s="2"/>
-    </row>
-    <row r="116" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I116" s="2"/>
-    </row>
-    <row r="117" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I117" s="2"/>
-    </row>
-    <row r="118" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I118" s="2"/>
-    </row>
-    <row r="119" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I119" s="2"/>
-    </row>
-    <row r="120" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I120" s="2"/>
-    </row>
-    <row r="121" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I121" s="2"/>
-    </row>
-    <row r="122" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I122" s="2"/>
-    </row>
-    <row r="123" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I123" s="2"/>
-    </row>
-    <row r="124" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I124" s="2"/>
-    </row>
-    <row r="125" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I125" s="2"/>
-    </row>
-    <row r="126" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I126" s="2"/>
-    </row>
-    <row r="127" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I127" s="2"/>
-    </row>
-    <row r="128" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I128" s="2"/>
-    </row>
-    <row r="129" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I129" s="2"/>
-    </row>
-    <row r="130" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I130" s="2"/>
-    </row>
-    <row r="131" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I131" s="2"/>
-    </row>
-    <row r="132" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I132" s="2"/>
-    </row>
-    <row r="133" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I133" s="2"/>
-    </row>
-    <row r="134" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I134" s="2"/>
-    </row>
-    <row r="135" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I135" s="2"/>
-    </row>
-    <row r="136" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I136" s="2"/>
-    </row>
-    <row r="137" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I137" s="2"/>
-    </row>
-    <row r="138" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I138" s="2"/>
-    </row>
-    <row r="139" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I139" s="2"/>
-    </row>
-    <row r="140" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I140" s="2"/>
-    </row>
-    <row r="141" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I141" s="2"/>
-    </row>
-    <row r="142" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I142" s="2"/>
-    </row>
-    <row r="143" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I143" s="2"/>
-    </row>
-    <row r="144" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I144" s="2"/>
-    </row>
-    <row r="145" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I145" s="2"/>
-    </row>
-    <row r="146" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I146" s="2"/>
-    </row>
-    <row r="147" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I147" s="2"/>
-    </row>
-    <row r="148" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I148" s="2"/>
-    </row>
-    <row r="149" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I149" s="2"/>
-    </row>
-    <row r="150" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I150" s="2"/>
-    </row>
-    <row r="151" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I151" s="2"/>
-    </row>
-    <row r="152" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I152" s="2"/>
-    </row>
-    <row r="153" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I153" s="2"/>
-    </row>
-    <row r="154" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I154" s="2"/>
-    </row>
-    <row r="155" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I155" s="2"/>
-    </row>
-    <row r="156" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I156" s="2"/>
-    </row>
-    <row r="157" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I157" s="2"/>
-    </row>
-    <row r="158" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I158" s="2"/>
-    </row>
-    <row r="159" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I159" s="2"/>
-    </row>
-    <row r="160" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I160" s="2"/>
-    </row>
-    <row r="161" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I161" s="2"/>
-    </row>
-    <row r="162" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I162" s="2"/>
-    </row>
-    <row r="163" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I163" s="2"/>
-    </row>
-    <row r="164" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I164" s="2"/>
-    </row>
-    <row r="165" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I165" s="2"/>
-    </row>
-    <row r="166" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I166" s="2"/>
-    </row>
-    <row r="167" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I167" s="2"/>
-    </row>
-    <row r="168" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I168" s="2"/>
-    </row>
-    <row r="169" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I169" s="2"/>
-    </row>
-    <row r="170" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I170" s="2"/>
-    </row>
-    <row r="171" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I171" s="2"/>
-    </row>
-    <row r="172" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I172" s="2"/>
-    </row>
-    <row r="173" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I173" s="2"/>
-    </row>
-    <row r="174" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I174" s="2"/>
-    </row>
-    <row r="175" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I175" s="2"/>
-    </row>
-    <row r="176" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I176" s="2"/>
-    </row>
-    <row r="177" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I177" s="2"/>
-    </row>
-    <row r="178" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I178" s="2"/>
-    </row>
-    <row r="179" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I179" s="2"/>
-    </row>
-    <row r="180" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I180" s="2"/>
-    </row>
-    <row r="181" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I181" s="2"/>
-    </row>
-    <row r="182" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I182" s="2"/>
-    </row>
-    <row r="183" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I183" s="2"/>
-    </row>
-    <row r="184" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I184" s="2"/>
-    </row>
-    <row r="185" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I185" s="2"/>
-    </row>
-    <row r="186" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I186" s="2"/>
-    </row>
-    <row r="187" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I187" s="2"/>
-    </row>
-    <row r="188" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I188" s="2"/>
-    </row>
-    <row r="189" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I189" s="2"/>
-    </row>
-    <row r="190" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I190" s="2"/>
-    </row>
-    <row r="191" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I191" s="2"/>
-    </row>
-    <row r="192" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I192" s="2"/>
-    </row>
-    <row r="193" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I193" s="2"/>
-    </row>
-    <row r="194" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I194" s="2"/>
-    </row>
-    <row r="195" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I195" s="2"/>
-    </row>
-    <row r="196" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I196" s="2"/>
-    </row>
-    <row r="197" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I197" s="2"/>
-    </row>
-    <row r="198" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I198" s="2"/>
-    </row>
-    <row r="199" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I199" s="2"/>
-    </row>
-    <row r="200" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I200" s="2"/>
-    </row>
-    <row r="201" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I201" s="2"/>
-    </row>
-    <row r="202" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I202" s="2"/>
-    </row>
-    <row r="203" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I203" s="2"/>
-    </row>
-    <row r="204" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I204" s="2"/>
-    </row>
-    <row r="205" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I205" s="2"/>
-    </row>
-    <row r="206" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I206" s="2"/>
-    </row>
-    <row r="207" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I207" s="2"/>
-    </row>
-    <row r="208" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I208" s="2"/>
-    </row>
-    <row r="209" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I209" s="2"/>
-    </row>
-    <row r="210" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I210" s="2"/>
-    </row>
-    <row r="211" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I211" s="2"/>
-    </row>
-    <row r="212" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I212" s="2"/>
-    </row>
-    <row r="213" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I213" s="2"/>
-    </row>
-    <row r="214" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I214" s="2"/>
-    </row>
-    <row r="215" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I215" s="2"/>
-    </row>
-    <row r="216" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I216" s="2"/>
-    </row>
-    <row r="217" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I217" s="2"/>
-    </row>
-    <row r="218" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I218" s="2"/>
-    </row>
-    <row r="219" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I219" s="2"/>
-    </row>
-    <row r="220" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I220" s="2"/>
-    </row>
-    <row r="221" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I221" s="2"/>
-    </row>
-    <row r="222" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I222" s="2"/>
-    </row>
-    <row r="223" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I223" s="2"/>
-    </row>
-    <row r="224" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I224" s="2"/>
-    </row>
-    <row r="225" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I225" s="2"/>
-    </row>
-    <row r="226" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I226" s="2"/>
-    </row>
-    <row r="227" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I227" s="2"/>
-    </row>
-    <row r="228" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I228" s="2"/>
-    </row>
-    <row r="229" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I229" s="2"/>
-    </row>
-    <row r="230" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I230" s="2"/>
-    </row>
-    <row r="231" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I231" s="2"/>
-    </row>
-    <row r="232" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I232" s="2"/>
-    </row>
-    <row r="233" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I233" s="2"/>
-    </row>
-    <row r="234" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I234" s="2"/>
-    </row>
-    <row r="235" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I235" s="2"/>
-    </row>
-    <row r="236" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I236" s="2"/>
-    </row>
-    <row r="237" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I237" s="2"/>
-    </row>
-    <row r="238" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I238" s="2"/>
-    </row>
-    <row r="239" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I239" s="2"/>
-    </row>
-    <row r="240" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I240" s="2"/>
-    </row>
-    <row r="241" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I241" s="2"/>
-    </row>
-    <row r="242" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I242" s="2"/>
-    </row>
-    <row r="243" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I243" s="2"/>
-    </row>
-    <row r="244" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I244" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2234,20 +1590,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2440,6 +1796,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FE838D2-67DD-483F-BECE-425D67F53E63}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46D3E674-3079-48B5-BFCB-0E49FE180026}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -2452,14 +1816,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FE838D2-67DD-483F-BECE-425D67F53E63}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/src/assets/documents/preguntaSubjetivas.xlsx
+++ b/src/assets/documents/preguntaSubjetivas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sullc\Documents\TPI\Workspace\TPIntegrador\Angular\TPI-Front\src\assets\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tpi2\git\TPI-Front\src\assets\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87936D4E-B9C5-4540-BAA5-828E8FDC06BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF53CE1A-9880-4201-BE4E-7F75C0C94F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" activeTab="3" xr2:uid="{EA040AEE-35B0-4F5B-AEF3-29BB44B005B2}"/>
+    <workbookView xWindow="-28920" yWindow="1440" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{EA040AEE-35B0-4F5B-AEF3-29BB44B005B2}"/>
   </bookViews>
   <sheets>
     <sheet name="categoria" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="55">
   <si>
     <t>nombre</t>
   </si>
@@ -608,21 +608,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67F1D32-4EEB-430C-A9B4-3504E8B95258}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD20"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -632,17 +630,8 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -667,12 +656,12 @@
       <selection activeCell="A4" sqref="A4:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -683,7 +672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -691,7 +680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -710,19 +699,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E557A189-07BD-4DD4-AE4E-E2A608F405F0}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="54.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -742,7 +731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -762,7 +751,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -782,7 +771,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -802,7 +791,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -822,7 +811,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -842,7 +831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -873,17 +862,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8759312-058C-4473-8FFB-A755D6FBD3C0}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD222"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="E31:F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="12" max="12" width="49.5703125" customWidth="1"/>
+    <col min="6" max="6" width="68.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="49.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -903,7 +893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -916,12 +906,15 @@
       <c r="D2">
         <v>0</v>
       </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -934,12 +927,15 @@
       <c r="D3">
         <v>0</v>
       </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -952,12 +948,15 @@
       <c r="D4">
         <v>1</v>
       </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -970,12 +969,15 @@
       <c r="D5">
         <v>2</v>
       </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -988,12 +990,15 @@
       <c r="D6">
         <v>3</v>
       </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1006,12 +1011,15 @@
       <c r="D7">
         <v>4</v>
       </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1033,7 +1041,7 @@
       <c r="I8" s="2"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1054,7 +1062,7 @@
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1075,7 +1083,7 @@
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1096,7 +1104,7 @@
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1117,7 +1125,7 @@
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1138,7 +1146,7 @@
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1159,7 +1167,7 @@
       </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1180,7 +1188,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1201,7 +1209,7 @@
       </c>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1222,7 +1230,7 @@
       </c>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1243,7 +1251,7 @@
       </c>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1264,7 +1272,7 @@
       </c>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1284,7 +1292,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1305,7 +1313,7 @@
       </c>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1326,7 +1334,7 @@
       </c>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1339,12 +1347,15 @@
       <c r="D23">
         <v>1</v>
       </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
       <c r="F23" t="s">
         <v>29</v>
       </c>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1357,13 +1368,16 @@
       <c r="D24">
         <v>3</v>
       </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
       <c r="F24" t="s">
         <v>29</v>
       </c>
       <c r="I24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1376,13 +1390,16 @@
       <c r="D25">
         <v>7</v>
       </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
       <c r="F25" t="s">
         <v>29</v>
       </c>
       <c r="I25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1395,13 +1412,16 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
       <c r="F26" t="s">
         <v>29</v>
       </c>
       <c r="I26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1414,13 +1434,16 @@
       <c r="D27">
         <v>0</v>
       </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
       <c r="F27" s="4" t="s">
         <v>40</v>
       </c>
       <c r="I27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1433,13 +1456,16 @@
       <c r="D28">
         <v>1</v>
       </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
       <c r="F28" s="4" t="s">
         <v>40</v>
       </c>
       <c r="I28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1452,12 +1478,15 @@
       <c r="D29">
         <v>4</v>
       </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
       <c r="F29" s="4" t="s">
         <v>40</v>
       </c>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1470,12 +1499,15 @@
       <c r="D30">
         <v>8</v>
       </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
       <c r="F30" s="4" t="s">
         <v>40</v>
       </c>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1488,12 +1520,15 @@
       <c r="D31">
         <v>0</v>
       </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
       <c r="F31" s="6" t="s">
         <v>45</v>
       </c>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1506,12 +1541,15 @@
       <c r="D32">
         <v>6</v>
       </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
       <c r="F32" s="6" t="s">
         <v>45</v>
       </c>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1524,12 +1562,15 @@
       <c r="D33">
         <v>10</v>
       </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
       <c r="F33" s="6" t="s">
         <v>45</v>
       </c>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1542,12 +1583,15 @@
       <c r="D34">
         <v>0</v>
       </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
       <c r="F34" s="6" t="s">
         <v>49</v>
       </c>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1560,12 +1604,15 @@
       <c r="D35">
         <v>6</v>
       </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
       <c r="F35" s="6" t="s">
         <v>49</v>
       </c>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1577,6 +1624,9 @@
       </c>
       <c r="D36">
         <v>10</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>49</v>
@@ -1590,23 +1640,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100641454CD1F1E6E428D478A5DC37BACE7" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ef1708d85dca7377bd826ec35b62ca84">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9" xmlns:ns4="7798dcc9-908f-468f-826a-c598f412d6fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="69e720de7d55d3231f99e1910e4c19d8" ns3:_="" ns4:_="">
     <xsd:import namespace="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9"/>
@@ -1795,10 +1828,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FE838D2-67DD-483F-BECE-425D67F53E63}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7274836D-657B-48C7-97FD-AD88493854E7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9"/>
+    <ds:schemaRef ds:uri="7798dcc9-908f-468f-826a-c598f412d6fc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1821,20 +1882,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7274836D-657B-48C7-97FD-AD88493854E7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FE838D2-67DD-483F-BECE-425D67F53E63}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9"/>
-    <ds:schemaRef ds:uri="7798dcc9-908f-468f-826a-c598f412d6fc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>